--- a/test_data/ims_test_data.xlsx
+++ b/test_data/ims_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" tabRatio="737" activeTab="3"/>
+    <workbookView windowWidth="28060" windowHeight="12220" tabRatio="737" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="fhc_cp_other_in" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="bhc_lp_other_in" sheetId="5" r:id="rId5"/>
     <sheet name="zzc_lp_other_in" sheetId="6" r:id="rId6"/>
     <sheet name="fhc_purchase_in" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet5" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -217,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -237,24 +236,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,9 +289,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,7 +315,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,14 +336,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +359,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,13 +372,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -357,29 +379,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -387,6 +386,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -396,7 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +425,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,145 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,8 +586,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +657,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -657,177 +680,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2080,8 +2079,8 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -3073,8 +3072,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -3131,20 +3130,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>